--- a/Legacy/BigBoi.xlsx
+++ b/Legacy/BigBoi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5535633be59a0d3/Documents/GitHub/testinator-of-doom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5535633be59a0d3/Documents/GitHub/testinator-of-doom/Legacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02121EEF-289A-4486-B778-C3596A3226FD}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B16B91B2-1C4E-4BFF-A0A6-7DC2AAFFC524}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-21255" yWindow="5010" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gain vs bias" sheetId="1" r:id="rId1"/>
@@ -5226,7 +5226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -6071,10 +6071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E16F846-3F56-4581-8DC1-24A19CACFCE4}">
-  <dimension ref="C5:V149"/>
+  <dimension ref="B5:V149"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6099,12 +6099,12 @@
     <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -6166,12 +6166,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -6241,12 +6241,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>IF(C13=$B$12,TRUE,)</f>
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>10</v>
       </c>
@@ -6254,7 +6263,11 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" ref="B14:B77" si="0">IF(C14=$B$12,TRUE,)</f>
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>12</v>
       </c>
@@ -6262,7 +6275,11 @@
         <v>227266.66699999999</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>14</v>
       </c>
@@ -6270,7 +6287,11 @@
         <v>241200</v>
       </c>
     </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>16</v>
       </c>
@@ -6278,7 +6299,11 @@
         <v>252520</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>18</v>
       </c>
@@ -6286,7 +6311,11 @@
         <v>249160</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>20</v>
       </c>
@@ -6294,7 +6323,11 @@
         <v>251320</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>22</v>
       </c>
@@ -6302,7 +6335,11 @@
         <v>260346.66699999999</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>24</v>
       </c>
@@ -6310,7 +6347,11 @@
         <v>54586.667000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>26</v>
       </c>
@@ -6318,7 +6359,11 @@
         <v>12146.666999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>28</v>
       </c>
@@ -6326,7 +6371,11 @@
         <v>10773.333000000001</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>30</v>
       </c>
@@ -6334,7 +6383,11 @@
         <v>8733.3330000000005</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>32</v>
       </c>
@@ -6342,7 +6395,11 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C25">
         <v>34</v>
       </c>
@@ -6350,7 +6407,11 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>36</v>
       </c>
@@ -6358,7 +6419,11 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>38</v>
       </c>
@@ -6366,7 +6431,11 @@
         <v>3573.3330000000001</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>40</v>
       </c>
@@ -6374,7 +6443,11 @@
         <v>3653.3330000000001</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>42</v>
       </c>
@@ -6382,7 +6455,11 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>44</v>
       </c>
@@ -6390,7 +6467,11 @@
         <v>133.333</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>46</v>
       </c>
@@ -6398,7 +6479,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>48</v>
       </c>
@@ -6406,7 +6491,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>50</v>
       </c>
@@ -6414,7 +6503,11 @@
         <v>306.66699999999997</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>52</v>
       </c>
@@ -6422,7 +6515,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>54</v>
       </c>
@@ -6430,7 +6527,11 @@
         <v>106.667</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>56</v>
       </c>
@@ -6438,7 +6539,11 @@
         <v>53.332999999999998</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C37">
         <v>58</v>
       </c>
@@ -6446,7 +6551,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>60</v>
       </c>
@@ -6454,7 +6563,11 @@
         <v>26.667000000000002</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>62</v>
       </c>
@@ -6462,7 +6575,11 @@
         <v>13.333</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>64</v>
       </c>
@@ -6476,7 +6593,11 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>66</v>
       </c>
@@ -6490,7 +6611,11 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>68</v>
       </c>
@@ -6505,7 +6630,11 @@
         <v>2.7265306122448978E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>70</v>
       </c>
@@ -6513,7 +6642,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>72</v>
       </c>
@@ -6521,7 +6654,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>74</v>
       </c>
@@ -6529,7 +6666,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>76</v>
       </c>
@@ -6537,7 +6678,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>78</v>
       </c>
@@ -6545,7 +6690,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>80</v>
       </c>
@@ -6553,7 +6702,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C49">
         <v>82</v>
       </c>
@@ -6561,7 +6714,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>84</v>
       </c>
@@ -6569,7 +6726,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C51">
         <v>86</v>
       </c>
@@ -6577,7 +6738,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C52">
         <v>88</v>
       </c>
@@ -6585,7 +6750,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C53">
         <v>90</v>
       </c>
@@ -6593,7 +6762,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>92</v>
       </c>
@@ -6601,7 +6774,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>94</v>
       </c>
@@ -6609,7 +6786,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>96</v>
       </c>
@@ -6617,7 +6798,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C57">
         <v>98</v>
       </c>
@@ -6625,7 +6810,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C58">
         <v>100</v>
       </c>
@@ -6633,7 +6822,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C59">
         <v>10</v>
       </c>
@@ -6641,7 +6834,11 @@
         <v>242854.66699999999</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C60">
         <v>11</v>
       </c>
@@ -6649,7 +6846,11 @@
         <v>242802</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C61">
         <v>12</v>
       </c>
@@ -6657,7 +6858,11 @@
         <v>242902</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C62">
         <v>13</v>
       </c>
@@ -6665,7 +6870,11 @@
         <v>243983.33300000001</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C63">
         <v>14</v>
       </c>
@@ -6673,7 +6882,11 @@
         <v>244075.33300000001</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C64">
         <v>15</v>
       </c>
@@ -6681,7 +6894,11 @@
         <v>244545.33300000001</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C65">
         <v>16</v>
       </c>
@@ -6689,7 +6906,11 @@
         <v>245341.33300000001</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C66">
         <v>17</v>
       </c>
@@ -6697,7 +6918,11 @@
         <v>246356.66699999999</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C67">
         <v>18</v>
       </c>
@@ -6705,7 +6930,11 @@
         <v>245902</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C68">
         <v>19</v>
       </c>
@@ -6713,7 +6942,11 @@
         <v>245690.66699999999</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C69">
         <v>20</v>
       </c>
@@ -6721,7 +6954,11 @@
         <v>247696.66699999999</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C70">
         <v>21</v>
       </c>
@@ -6729,7 +6966,11 @@
         <v>246907.33300000001</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C71">
         <v>22</v>
       </c>
@@ -6737,7 +6978,11 @@
         <v>244582</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C72">
         <v>23</v>
       </c>
@@ -6745,7 +6990,11 @@
         <v>242051.33300000001</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C73">
         <v>24</v>
       </c>
@@ -6753,7 +7002,11 @@
         <v>185615.33300000001</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C74">
         <v>25</v>
       </c>
@@ -6761,7 +7014,11 @@
         <v>55510</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C75">
         <v>26</v>
       </c>
@@ -6769,7 +7026,11 @@
         <v>14236.666999999999</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C76">
         <v>27</v>
       </c>
@@ -6777,7 +7038,11 @@
         <v>12241.333000000001</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C77">
         <v>28</v>
       </c>
@@ -6785,7 +7050,11 @@
         <v>11358</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" ref="B78:B141" si="1">IF(C78=$B$12,TRUE,)</f>
+        <v>0</v>
+      </c>
       <c r="C78">
         <v>29</v>
       </c>
@@ -6793,7 +7062,11 @@
         <v>10744.666999999999</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C79">
         <v>30</v>
       </c>
@@ -6801,7 +7074,11 @@
         <v>10107.333000000001</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C80">
         <v>31</v>
       </c>
@@ -6809,7 +7086,11 @@
         <v>9213.3330000000005</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C81">
         <v>32</v>
       </c>
@@ -6817,7 +7098,11 @@
         <v>8502</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C82">
         <v>33</v>
       </c>
@@ -6825,7 +7110,11 @@
         <v>8027.3329999999996</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="C83">
         <v>34</v>
       </c>
@@ -6833,7 +7122,11 @@
         <v>7221.3329999999996</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C84">
         <v>35</v>
       </c>
@@ -6841,7 +7134,11 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C85">
         <v>36</v>
       </c>
@@ -6849,7 +7146,11 @@
         <v>5593.3329999999996</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C86">
         <v>37</v>
       </c>
@@ -6857,7 +7158,11 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C87">
         <v>38</v>
       </c>
@@ -6865,7 +7170,11 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C88">
         <v>39</v>
       </c>
@@ -6873,7 +7182,11 @@
         <v>3780.6669999999999</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C89">
         <v>40</v>
       </c>
@@ -6881,7 +7194,11 @@
         <v>3481.3330000000001</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C90">
         <v>41</v>
       </c>
@@ -6889,7 +7206,11 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C91">
         <v>42</v>
       </c>
@@ -6897,7 +7218,11 @@
         <v>2426.6669999999999</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C92">
         <v>43</v>
       </c>
@@ -6905,7 +7230,11 @@
         <v>1082.6669999999999</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C93">
         <v>44</v>
       </c>
@@ -6913,7 +7242,11 @@
         <v>396</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C94">
         <v>45</v>
       </c>
@@ -6921,7 +7254,11 @@
         <v>276.66699999999997</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C95">
         <v>46</v>
       </c>
@@ -6929,7 +7266,11 @@
         <v>262.66699999999997</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C96">
         <v>47</v>
       </c>
@@ -6937,7 +7278,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C97">
         <v>48</v>
       </c>
@@ -6945,7 +7290,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C98">
         <v>49</v>
       </c>
@@ -6953,7 +7302,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C99">
         <v>50</v>
       </c>
@@ -6961,7 +7314,11 @@
         <v>181.333</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C100">
         <v>51</v>
       </c>
@@ -6969,7 +7326,11 @@
         <v>153.333</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C101">
         <v>52</v>
       </c>
@@ -6977,7 +7338,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C102">
         <v>53</v>
       </c>
@@ -6985,7 +7350,11 @@
         <v>108.667</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C103">
         <v>54</v>
       </c>
@@ -6993,7 +7362,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C104">
         <v>55</v>
       </c>
@@ -7001,7 +7374,11 @@
         <v>84.667000000000002</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C105">
         <v>56</v>
       </c>
@@ -7009,7 +7386,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C106">
         <v>57</v>
       </c>
@@ -7017,7 +7398,11 @@
         <v>60.667000000000002</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C107">
         <v>58</v>
       </c>
@@ -7025,7 +7410,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C108">
         <v>59</v>
       </c>
@@ -7033,7 +7422,11 @@
         <v>62.667000000000002</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C109">
         <v>60</v>
       </c>
@@ -7041,7 +7434,11 @@
         <v>46.667000000000002</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C110">
         <v>61</v>
       </c>
@@ -7049,7 +7446,11 @@
         <v>24.667000000000002</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C111">
         <v>62</v>
       </c>
@@ -7057,7 +7458,11 @@
         <v>19.332999999999998</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C112">
         <v>63</v>
       </c>
@@ -7065,7 +7470,11 @@
         <v>13.333</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C113">
         <v>64</v>
       </c>
@@ -7073,7 +7482,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C114">
         <v>65</v>
       </c>
@@ -7081,7 +7494,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C115">
         <v>66</v>
       </c>
@@ -7089,7 +7506,11 @@
         <v>7.3330000000000002</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C116">
         <v>67</v>
       </c>
@@ -7097,7 +7518,11 @@
         <v>2.6669999999999998</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C117">
         <v>68</v>
       </c>
@@ -7105,7 +7530,11 @@
         <v>8.6669999999999998</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C118">
         <v>69</v>
       </c>
@@ -7113,7 +7542,11 @@
         <v>4.6669999999999998</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C119">
         <v>70</v>
       </c>
@@ -7121,7 +7554,11 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C120">
         <v>71</v>
       </c>
@@ -7129,7 +7566,11 @@
         <v>5.3330000000000002</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C121">
         <v>72</v>
       </c>
@@ -7137,7 +7578,11 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C122">
         <v>73</v>
       </c>
@@ -7145,7 +7590,11 @@
         <v>2.6669999999999998</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C123">
         <v>74</v>
       </c>
@@ -7153,7 +7602,11 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C124">
         <v>75</v>
       </c>
@@ -7161,7 +7614,11 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C125">
         <v>76</v>
       </c>
@@ -7169,7 +7626,11 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C126">
         <v>77</v>
       </c>
@@ -7177,7 +7638,11 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C127">
         <v>78</v>
       </c>
@@ -7185,7 +7650,11 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C128">
         <v>79</v>
       </c>
@@ -7193,7 +7662,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C129">
         <v>80</v>
       </c>
@@ -7201,7 +7674,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C130">
         <v>81</v>
       </c>
@@ -7209,7 +7686,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C131">
         <v>82</v>
       </c>
@@ -7217,7 +7698,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C132">
         <v>83</v>
       </c>
@@ -7225,7 +7710,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C133">
         <v>84</v>
       </c>
@@ -7233,7 +7722,11 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C134">
         <v>85</v>
       </c>
@@ -7241,7 +7734,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C135">
         <v>86</v>
       </c>
@@ -7249,7 +7746,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C136">
         <v>87</v>
       </c>
@@ -7257,7 +7758,11 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C137">
         <v>88</v>
       </c>
@@ -7265,7 +7770,11 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C138">
         <v>89</v>
       </c>
@@ -7273,7 +7782,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C139">
         <v>90</v>
       </c>
@@ -7281,7 +7794,11 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C140">
         <v>91</v>
       </c>
@@ -7289,7 +7806,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C141">
         <v>92</v>
       </c>
@@ -7297,7 +7818,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <f t="shared" ref="B142:B149" si="2">IF(C142=$B$12,TRUE,)</f>
+        <v>0</v>
+      </c>
       <c r="C142">
         <v>93</v>
       </c>
@@ -7305,7 +7830,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C143">
         <v>94</v>
       </c>
@@ -7313,7 +7842,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C144">
         <v>95</v>
       </c>
@@ -7321,7 +7854,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C145">
         <v>96</v>
       </c>
@@ -7329,7 +7866,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C146">
         <v>97</v>
       </c>
@@ -7337,7 +7878,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C147">
         <v>98</v>
       </c>
@@ -7345,7 +7890,11 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C148">
         <v>99</v>
       </c>
@@ -7353,7 +7902,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C149">
         <v>100</v>
       </c>
